--- a/src/main/resources/HTTangKemSPTheoBoiSo.xlsx
+++ b/src/main/resources/HTTangKemSPTheoBoiSo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThuPhuoc\MyAutomation\finviet\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Auto_Company\FinViet2024\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34EFBE5-7802-4686-BEBF-FFF09F0F5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" tabRatio="580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" tabRatio="580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThongTinCoBanKM" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Infor" sheetId="8" r:id="rId6"/>
     <sheet name="copy" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="185">
   <si>
     <t>Kênh mua hàng</t>
   </si>
@@ -600,7 +599,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,12 +944,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,10 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="1" xr:uid="{EB11BF24-669B-4E99-B4C3-441E0617AA7B}"/>
+    <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1370,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1471,7 +1470,7 @@
     </row>
   </sheetData>
   <dataValidations xWindow="272" yWindow="419" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1481,13 +1480,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
       <selection activeCell="BG2" sqref="BG2"/>
-      <selection pane="topRight" activeCell="BG12" sqref="BG12"/>
+      <selection pane="topRight" activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6436,10 +6435,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS5 J2:J5 J7:J28 G2:G5 G7:G28 AM2:AM5 AM7:AM28 AP2:AP5 AP7:AP70" xr:uid="{E28185B9-B1E3-492C-B41E-CB0F6B024400}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS5 J2:J5 J7:J28 G2:G5 G7:G28 AM2:AM5 AM7:AM28 AP2:AP5 AP7:AP70">
       <formula1>"Bao gồm,Loại trừ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"Loại trừ,Cộng dồn,Bậc thang"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6449,12 +6448,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6705,9 +6704,6 @@
       <c r="F7" s="45">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>153</v>
-      </c>
       <c r="L7" t="s">
         <v>172</v>
       </c>
@@ -7253,7 +7249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
@@ -7558,7 +7554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E886D96-80C6-476A-A00F-3C3B1FA8695B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG61"/>
   <sheetViews>
     <sheetView showFormulas="1" topLeftCell="A25" workbookViewId="0">
@@ -7662,10 +7658,10 @@
       <c r="L4" s="27"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
@@ -7676,7 +7672,7 @@
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="52">
         <v>2</v>
       </c>
       <c r="E9" s="14">
@@ -7689,7 +7685,7 @@
       <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="52"/>
       <c r="E10" s="14">
         <v>2</v>
       </c>
@@ -7717,7 +7713,7 @@
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="52">
         <v>2</v>
       </c>
       <c r="E12" s="14">
@@ -7730,7 +7726,7 @@
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="52"/>
       <c r="E13" s="14">
         <v>5</v>
       </c>
@@ -7743,7 +7739,7 @@
       <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="48">
         <v>2</v>
       </c>
       <c r="E14" s="14">
@@ -7756,7 +7752,7 @@
       <c r="B15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="49"/>
       <c r="E15" s="14">
         <v>7</v>
       </c>
@@ -7769,7 +7765,7 @@
       <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="48">
         <v>2</v>
       </c>
       <c r="E16" s="14">
@@ -7782,7 +7778,7 @@
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="49"/>
       <c r="E17" s="14">
         <v>9</v>
       </c>
@@ -7795,7 +7791,7 @@
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="48">
         <v>2</v>
       </c>
       <c r="E18" s="14">
@@ -7808,7 +7804,7 @@
       <c r="B19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -8515,22 +8511,22 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
@@ -8544,40 +8540,40 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="48" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="50"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44">
@@ -8856,6 +8852,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
@@ -8863,11 +8864,6 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8876,11 +8872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9026,7 +9022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49272CEF-91C4-4AA9-A35B-23F23B744AC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG155"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14320,10 +14316,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33 G2:G33 AS2:AS11 AM2:AM33 AP2:AP75" xr:uid="{DF644CCE-7298-4C6F-95CF-2B57AEF205D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33 G2:G33 AS2:AS11 AM2:AM33 AP2:AP75">
       <formula1>"Bao gồm,Loại trừ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{21DE90BF-9E3A-4C30-BD20-0E565ADE07E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9">
       <formula1>"Loại trừ,Cộng dồn,Bậc thang"</formula1>
     </dataValidation>
   </dataValidations>
